--- a/docs/sales_scripts.xlsx
+++ b/docs/sales_scripts.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Привет!</t>
   </si>
   <si>
-    <t xml:space="preserve">Добрый день! 👋 Рады видеть вас в Университет НЛП и Психологии. Как мы можем помочь вам сегодня?</t>
+    <t xml:space="preserve">Добрый день! 👋 Рады видеть вас в Институт Психологии. Как мы можем помочь вам сегодня?</t>
   </si>
   <si>
     <t xml:space="preserve">Мне интересно узнать больше о курсах по нейропсихологии.</t>
@@ -238,7 +238,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
